--- a/Bang ke NL, nông lâm sản/Nam 2018/Thang 03.xlsx
+++ b/Bang ke NL, nông lâm sản/Nam 2018/Thang 03.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="19440" windowHeight="9975" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="19440" windowHeight="9975" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="HUNAN 05" sheetId="16" r:id="rId1"/>
@@ -17,9 +17,9 @@
     <sheet name="Haecheong3" sheetId="22" r:id="rId8"/>
     <sheet name="HUNAN20" sheetId="23" r:id="rId9"/>
     <sheet name="LC 41.000" sheetId="24" r:id="rId10"/>
+    <sheet name="Dae yeong 01" sheetId="25" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
@@ -33,6 +33,7 @@
     <definedName name="_Fill" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'Dae yeong 01'!$A$1:$I$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">Haecheong3!$A$1:$I$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'HUNAN 07'!$A$1:$I$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">HUNAN20!$A$1:$I$45</definedName>
@@ -46,12 +47,12 @@
     <definedName name="SNACK03" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="SNACK03" hidden="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="75">
   <si>
     <t>Người bán</t>
   </si>
@@ -287,11 +288,17 @@
   <si>
     <t>(Ngày 27 tháng 03 năm 2018)</t>
   </si>
+  <si>
+    <t>(Ngày 30 tháng 03 năm 2018)</t>
+  </si>
+  <si>
+    <t>Ngày  30  Tháng  03  năm  2018</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="14">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -748,7 +755,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -982,6 +989,39 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1051,36 +1091,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="cg" xfId="2"/>
@@ -1128,7 +1138,16 @@
     <cellStyle name="통화_1202" xfId="26"/>
     <cellStyle name="표준_(정보부문)월별인원계획" xfId="27"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1230,7 +1249,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Vine"/>
@@ -2699,1522 +2718,15 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Vine"/>
       <sheetName val="SNACK 03"/>
       <sheetName val="KOJUBU 08"/>
+      <sheetName val="Vine"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="5">
-          <cell r="A5">
-            <v>0</v>
-          </cell>
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>cá chai ghép</v>
-          </cell>
-          <cell r="D5">
-            <v>6.5</v>
-          </cell>
-          <cell r="E5">
-            <v>0</v>
-          </cell>
-          <cell r="F5" t="str">
-            <v>Tên mặt hàng</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>0</v>
-          </cell>
-          <cell r="B6">
-            <v>0</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>Ghẹ</v>
-          </cell>
-          <cell r="D6">
-            <v>8</v>
-          </cell>
-          <cell r="E6">
-            <v>0</v>
-          </cell>
-          <cell r="F6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>0</v>
-          </cell>
-          <cell r="B7">
-            <v>0</v>
-          </cell>
-          <cell r="C7">
-            <v>0</v>
-          </cell>
-          <cell r="D7">
-            <v>0</v>
-          </cell>
-          <cell r="E7">
-            <v>0</v>
-          </cell>
-          <cell r="F7" t="str">
-            <v>Cá cơm NL</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>0</v>
-          </cell>
-          <cell r="B8">
-            <v>0</v>
-          </cell>
-          <cell r="C8">
-            <v>0</v>
-          </cell>
-          <cell r="D8">
-            <v>0</v>
-          </cell>
-          <cell r="E8">
-            <v>370803567</v>
-          </cell>
-          <cell r="F8" t="str">
-            <v>Cá chỉ vàng NL</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>0</v>
-          </cell>
-          <cell r="B9">
-            <v>0</v>
-          </cell>
-          <cell r="C9">
-            <v>0</v>
-          </cell>
-          <cell r="D9">
-            <v>0</v>
-          </cell>
-          <cell r="E9">
-            <v>0</v>
-          </cell>
-          <cell r="F9" t="str">
-            <v>Cá mối NL</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Người bán</v>
-          </cell>
-          <cell r="B10">
-            <v>0</v>
-          </cell>
-          <cell r="C10">
-            <v>0</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>Tỉnh</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>Tên mặt hàng</v>
-          </cell>
-          <cell r="F10" t="str">
-            <v>Cá chai NL</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Họ tên</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>CMND</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>Địa chỉ</v>
-          </cell>
-          <cell r="D11">
-            <v>0</v>
-          </cell>
-          <cell r="E11">
-            <v>0</v>
-          </cell>
-          <cell r="F11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Võ Văn Thắng</v>
-          </cell>
-          <cell r="B12">
-            <v>320044169</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>Ba Tri - Bến Tre</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>Bến Tre</v>
-          </cell>
-          <cell r="E12">
-            <v>0</v>
-          </cell>
-          <cell r="F12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Nguyễn Thị Hồng Hoa</v>
-          </cell>
-          <cell r="B13">
-            <v>320744085</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>Ba Tri - Bến Tre</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>Bến Tre</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Nguyễn Thành Phong</v>
-          </cell>
-          <cell r="B14">
-            <v>320775664</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>Ba Tri - Bến Tre</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>Bến Tre</v>
-          </cell>
-          <cell r="E14">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Nguyễn Văn Tha</v>
-          </cell>
-          <cell r="B15">
-            <v>320807672</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>Ba Tri - Bến Tre</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>Bến Tre</v>
-          </cell>
-          <cell r="F15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Lý Thị Thảo</v>
-          </cell>
-          <cell r="B16">
-            <v>320881573</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>Ba Tri - Bến Tre</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>Bến Tre</v>
-          </cell>
-          <cell r="E16">
-            <v>0</v>
-          </cell>
-          <cell r="F16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Nguyễn Thị Tuyết Đang</v>
-          </cell>
-          <cell r="B17">
-            <v>320883374</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>Ba Tri - Bến Tre</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>Bến Tre</v>
-          </cell>
-          <cell r="E17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Nguyễn Văn Phong</v>
-          </cell>
-          <cell r="B18">
-            <v>320892558</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>Ba Tri - Bến Tre</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>Bến Tre</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>Trương Thị Nhớ</v>
-          </cell>
-          <cell r="B19">
-            <v>320892578</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>Ba Tri - Bến Tre</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v>Bến Tre</v>
-          </cell>
-          <cell r="E19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Nguyễn Thanh Hoàng</v>
-          </cell>
-          <cell r="B20">
-            <v>321413712</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>Ba Tri - Bến Tre</v>
-          </cell>
-          <cell r="D20" t="str">
-            <v>Bến Tre</v>
-          </cell>
-          <cell r="E20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Lê Thành Lê</v>
-          </cell>
-          <cell r="B21">
-            <v>320593933</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>Giồng Trôm - Bến Tre</v>
-          </cell>
-          <cell r="D21" t="str">
-            <v>Bến Tre</v>
-          </cell>
-          <cell r="E21">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Đỗ Ngọc Trương</v>
-          </cell>
-          <cell r="B22">
-            <v>320876542</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>Giồng Trôm - Bến Tre</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v>Bến Tre</v>
-          </cell>
-          <cell r="E22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Đặng Thanh Phong</v>
-          </cell>
-          <cell r="B23">
-            <v>320876558</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>Giồng Trôm - Bến Tre</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>Bến Tre</v>
-          </cell>
-          <cell r="E23">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Nguyễn Văn Hiền</v>
-          </cell>
-          <cell r="B24">
-            <v>320878054</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>Giồng Trôm - Bến Tre</v>
-          </cell>
-          <cell r="D24" t="str">
-            <v>Bến Tre</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Nguyễn Thanh Hải</v>
-          </cell>
-          <cell r="B25">
-            <v>321179471</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>Giồng Trôm - Bến Tre</v>
-          </cell>
-          <cell r="D25" t="str">
-            <v>Bến Tre</v>
-          </cell>
-          <cell r="E25">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Phạm Tuấn Anh</v>
-          </cell>
-          <cell r="B26">
-            <v>321478047</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>Thạnh Phú - Bến Tre</v>
-          </cell>
-          <cell r="D26" t="str">
-            <v>Bến Tre</v>
-          </cell>
-          <cell r="E26">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>Huỳnh Ngọc Thu</v>
-          </cell>
-          <cell r="B27">
-            <v>320522056</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>Bến Tre</v>
-          </cell>
-          <cell r="D27" t="str">
-            <v>Bến Tre</v>
-          </cell>
-          <cell r="E27" t="str">
-            <v>Cá chỉ vàng</v>
-          </cell>
-          <cell r="F27">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>Trần Thị Nê</v>
-          </cell>
-          <cell r="B28">
-            <v>320747922</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>Giồng Trôm - Bến Tre</v>
-          </cell>
-          <cell r="D28" t="str">
-            <v>Bến Tre</v>
-          </cell>
-          <cell r="E28" t="str">
-            <v>Cá chỉ vàng</v>
-          </cell>
-          <cell r="F28">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Lê Thị Diễm</v>
-          </cell>
-          <cell r="B29">
-            <v>320878272</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>Giồng Trôm - Bến Tre</v>
-          </cell>
-          <cell r="D29" t="str">
-            <v>Bến Tre</v>
-          </cell>
-          <cell r="E29" t="str">
-            <v>Cá chỉ vàng</v>
-          </cell>
-          <cell r="F29">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Trương Thị Mỉm</v>
-          </cell>
-          <cell r="B30">
-            <v>320897817</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>Mỏ Cày - Bến Tre</v>
-          </cell>
-          <cell r="D30" t="str">
-            <v>Bến Tre</v>
-          </cell>
-          <cell r="E30" t="str">
-            <v>Cá chỉ vàng</v>
-          </cell>
-          <cell r="F30">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>Nguyễn Thị Loan</v>
-          </cell>
-          <cell r="B31">
-            <v>321009246</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>Mỏ Cày - Bến Tre</v>
-          </cell>
-          <cell r="D31" t="str">
-            <v>Bến Tre</v>
-          </cell>
-          <cell r="E31" t="str">
-            <v>Cá chỉ vàng</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Lê Thị Diệu</v>
-          </cell>
-          <cell r="B32">
-            <v>250746332</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>Đức Linh - Bình Thuận</v>
-          </cell>
-          <cell r="D32" t="str">
-            <v>Bình Thuận</v>
-          </cell>
-          <cell r="E32" t="str">
-            <v>Cá cơm</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>Lê Thị Thiện Em</v>
-          </cell>
-          <cell r="B33">
-            <v>260682094</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>Đức Linh - Bình Thuận</v>
-          </cell>
-          <cell r="D33" t="str">
-            <v>Bình Thuận</v>
-          </cell>
-          <cell r="E33" t="str">
-            <v>Cá cơm</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>Trần Văn An</v>
-          </cell>
-          <cell r="B34">
-            <v>260690910</v>
-          </cell>
-          <cell r="C34" t="str">
-            <v>Hàm Tân - Bình Thuận</v>
-          </cell>
-          <cell r="D34" t="str">
-            <v>Bình Thuận</v>
-          </cell>
-          <cell r="E34" t="str">
-            <v>Cá cơm</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Nguyễn Thị Hội</v>
-          </cell>
-          <cell r="B35" t="str">
-            <v>020714486</v>
-          </cell>
-          <cell r="C35" t="str">
-            <v>Long Hương - Bình Thuận</v>
-          </cell>
-          <cell r="D35" t="str">
-            <v>Bình Thuận</v>
-          </cell>
-          <cell r="E35" t="str">
-            <v>Cá cơm</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>Nguyễn Thanh Bình</v>
-          </cell>
-          <cell r="B36">
-            <v>260178873</v>
-          </cell>
-          <cell r="C36" t="str">
-            <v>Phan Thiết - Bình Thuận</v>
-          </cell>
-          <cell r="D36" t="str">
-            <v>Bình Thuận</v>
-          </cell>
-          <cell r="E36" t="str">
-            <v>Cá cơm</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>Nguyễn Văn Hạnh</v>
-          </cell>
-          <cell r="B37">
-            <v>260850613</v>
-          </cell>
-          <cell r="C37" t="str">
-            <v>Phan Thiết - Bình Thuận</v>
-          </cell>
-          <cell r="D37" t="str">
-            <v>Bình Thuận</v>
-          </cell>
-          <cell r="E37" t="str">
-            <v>Cá cơm</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>Trần Thị Thu Hiếu</v>
-          </cell>
-          <cell r="B38">
-            <v>280853616</v>
-          </cell>
-          <cell r="C38" t="str">
-            <v>Phan Thiết - Bình Thuận</v>
-          </cell>
-          <cell r="D38" t="str">
-            <v>Bình Thuận</v>
-          </cell>
-          <cell r="E38" t="str">
-            <v>Cá cơm</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>Nguyễn Văn Nhân</v>
-          </cell>
-          <cell r="B39">
-            <v>261005222</v>
-          </cell>
-          <cell r="C39" t="str">
-            <v>Thanh Hải - Bình Thuận</v>
-          </cell>
-          <cell r="D39" t="str">
-            <v>Bình Thuận</v>
-          </cell>
-          <cell r="E39" t="str">
-            <v>Cá cơm</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>Nguyễn Thị Kiều Oanh</v>
-          </cell>
-          <cell r="B40">
-            <v>381156240</v>
-          </cell>
-          <cell r="C40" t="str">
-            <v>Cà Mau</v>
-          </cell>
-          <cell r="D40" t="str">
-            <v>Cà Mau</v>
-          </cell>
-          <cell r="E40" t="str">
-            <v>Cá mai</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>Nguyễn Thị Hồng Tơ</v>
-          </cell>
-          <cell r="B41">
-            <v>381222859</v>
-          </cell>
-          <cell r="C41" t="str">
-            <v>Cái Đước - Cà Mau</v>
-          </cell>
-          <cell r="D41" t="str">
-            <v>Cà Mau</v>
-          </cell>
-          <cell r="E41" t="str">
-            <v>Cá mai</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>Phạm Thị Ngọc</v>
-          </cell>
-          <cell r="B42">
-            <v>220557300</v>
-          </cell>
-          <cell r="C42" t="str">
-            <v>Nha Trang - Khánh Hoà</v>
-          </cell>
-          <cell r="D42" t="str">
-            <v>Khánh Hoà</v>
-          </cell>
-          <cell r="E42" t="str">
-            <v>Cá mai</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>Võ Thị Huyền</v>
-          </cell>
-          <cell r="B43">
-            <v>370615318</v>
-          </cell>
-          <cell r="C43" t="str">
-            <v>Gò Quao - Kiên Giang</v>
-          </cell>
-          <cell r="D43" t="str">
-            <v>Kiên Giang</v>
-          </cell>
-          <cell r="E43" t="str">
-            <v>Cá mai, cá đổng, mực</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>Nguyễn Thị Bé Hai</v>
-          </cell>
-          <cell r="B44">
-            <v>370825748</v>
-          </cell>
-          <cell r="C44" t="str">
-            <v>Gò Quao - Kiên Giang</v>
-          </cell>
-          <cell r="D44" t="str">
-            <v>Kiên Giang</v>
-          </cell>
-          <cell r="E44" t="str">
-            <v>Cá mai, cá đổng, mực</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>Lâm Thị Loan</v>
-          </cell>
-          <cell r="B45">
-            <v>370698949</v>
-          </cell>
-          <cell r="C45" t="str">
-            <v>Hòn Đất, Kiên Giang</v>
-          </cell>
-          <cell r="D45" t="str">
-            <v>Kiên Giang</v>
-          </cell>
-          <cell r="E45" t="str">
-            <v>KG 90428TS, KG90139TS, KG91737TS</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>Vũ Thị Lan</v>
-          </cell>
-          <cell r="B46">
-            <v>370803567</v>
-          </cell>
-          <cell r="C46" t="str">
-            <v>Kiên lương - Kiên Giang</v>
-          </cell>
-          <cell r="D46" t="str">
-            <v>Kiên Giang</v>
-          </cell>
-          <cell r="E46" t="str">
-            <v>Cá mai, cá đổng, mực</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>Trương Quốc Tuấn</v>
-          </cell>
-          <cell r="B47">
-            <v>370004125</v>
-          </cell>
-          <cell r="C47" t="str">
-            <v>Rạch Giá - Kiên Giang</v>
-          </cell>
-          <cell r="D47" t="str">
-            <v>Kiên Giang</v>
-          </cell>
-          <cell r="E47" t="str">
-            <v>Cá mai, cá đổng, mực</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>Nguyễn Văn Hải</v>
-          </cell>
-          <cell r="B48">
-            <v>370033286</v>
-          </cell>
-          <cell r="C48" t="str">
-            <v>Rạch Giá - Kiên Giang</v>
-          </cell>
-          <cell r="D48" t="str">
-            <v>Kiên Giang</v>
-          </cell>
-          <cell r="E48" t="str">
-            <v>Mực</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>Huỳnh Thị Kiều</v>
-          </cell>
-          <cell r="B49">
-            <v>370047763</v>
-          </cell>
-          <cell r="C49" t="str">
-            <v>Rạch Giá - Kiên Giang</v>
-          </cell>
-          <cell r="D49" t="str">
-            <v>Kiên Giang</v>
-          </cell>
-          <cell r="E49" t="str">
-            <v>Mực</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>Nguyễn Thị Kim Vân</v>
-          </cell>
-          <cell r="B50">
-            <v>370054438</v>
-          </cell>
-          <cell r="C50" t="str">
-            <v>Rạch Giá - Kiên Giang</v>
-          </cell>
-          <cell r="D50" t="str">
-            <v>Kiên Giang</v>
-          </cell>
-          <cell r="E50" t="str">
-            <v>Cá chỉ vàng</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>Phan Quốc Việt</v>
-          </cell>
-          <cell r="B51">
-            <v>370209938</v>
-          </cell>
-          <cell r="C51" t="str">
-            <v>Rạch Giá - Kiên Giang</v>
-          </cell>
-          <cell r="D51" t="str">
-            <v>Kiên Giang</v>
-          </cell>
-          <cell r="E51" t="str">
-            <v>Mực</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>Phạm Thị Bảy</v>
-          </cell>
-          <cell r="B52">
-            <v>370324838</v>
-          </cell>
-          <cell r="C52" t="str">
-            <v>Rạch Giá - Kiên Giang</v>
-          </cell>
-          <cell r="D52" t="str">
-            <v>Kiên Giang</v>
-          </cell>
-          <cell r="E52" t="str">
-            <v>Cá mai, cá đổng, mực</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>Tiêu Vĩnh Phát</v>
-          </cell>
-          <cell r="B53">
-            <v>370511387</v>
-          </cell>
-          <cell r="C53" t="str">
-            <v>Rạch Giá - Kiên Giang</v>
-          </cell>
-          <cell r="D53" t="str">
-            <v>Kiên Giang</v>
-          </cell>
-          <cell r="E53" t="str">
-            <v>Cá chỉ vàng</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>Phan Quốc Vũ</v>
-          </cell>
-          <cell r="B54">
-            <v>370782417</v>
-          </cell>
-          <cell r="C54" t="str">
-            <v>Rạch Giá - Kiên Giang</v>
-          </cell>
-          <cell r="D54" t="str">
-            <v>Kiên Giang</v>
-          </cell>
-          <cell r="E54" t="str">
-            <v>Mực</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v>Vương Hải Thạnh</v>
-          </cell>
-          <cell r="B55">
-            <v>370948627</v>
-          </cell>
-          <cell r="C55" t="str">
-            <v>Rạch Giá - Kiên Giang</v>
-          </cell>
-          <cell r="D55" t="str">
-            <v>Kiên Giang</v>
-          </cell>
-          <cell r="E55" t="str">
-            <v>Cá chỉ vàng</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56" t="str">
-            <v>Trần Huỳnh Em</v>
-          </cell>
-          <cell r="B56">
-            <v>371008704</v>
-          </cell>
-          <cell r="C56" t="str">
-            <v>Rạch Giá - Kiên Giang</v>
-          </cell>
-          <cell r="D56" t="str">
-            <v>Kiên Giang</v>
-          </cell>
-          <cell r="E56" t="str">
-            <v>Mực</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57" t="str">
-            <v>Lê Hoàng Long</v>
-          </cell>
-          <cell r="B57">
-            <v>371139593</v>
-          </cell>
-          <cell r="C57" t="str">
-            <v>Rạch Giá - Kiên Giang</v>
-          </cell>
-          <cell r="D57" t="str">
-            <v>Kiên Giang</v>
-          </cell>
-          <cell r="E57" t="str">
-            <v>Cá chỉ vàng</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v>Trần Ngọc Quyên</v>
-          </cell>
-          <cell r="B58">
-            <v>371166950</v>
-          </cell>
-          <cell r="C58" t="str">
-            <v>Rạch Giá - Kiên Giang</v>
-          </cell>
-          <cell r="D58" t="str">
-            <v>Kiên Giang</v>
-          </cell>
-          <cell r="E58" t="str">
-            <v>Cá chỉ vàng</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>Trần Thị Tuyết</v>
-          </cell>
-          <cell r="B59">
-            <v>370261883</v>
-          </cell>
-          <cell r="C59" t="str">
-            <v>Vĩnh Thuận - Kiên Giang</v>
-          </cell>
-          <cell r="D59" t="str">
-            <v>Kiên Giang</v>
-          </cell>
-          <cell r="E59" t="str">
-            <v>Cá mai, cá đổng, mực</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60" t="str">
-            <v>Lê Thị Kim Thanh</v>
-          </cell>
-          <cell r="B60">
-            <v>311514350</v>
-          </cell>
-          <cell r="C60" t="str">
-            <v>Châu Thành - Tiền Giang</v>
-          </cell>
-          <cell r="D60" t="str">
-            <v>Tiền Giang</v>
-          </cell>
-          <cell r="E60" t="str">
-            <v>Cá chỉ vàng</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>Lê Thị Kim Liên</v>
-          </cell>
-          <cell r="B61">
-            <v>311704830</v>
-          </cell>
-          <cell r="C61" t="str">
-            <v>Châu Thành - Tiền Giang</v>
-          </cell>
-          <cell r="D61" t="str">
-            <v>Tiền Giang</v>
-          </cell>
-          <cell r="E61" t="str">
-            <v>Cá chỉ vàng</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v>Nguyễn Thị Mộng Tuyền</v>
-          </cell>
-          <cell r="B62">
-            <v>311318331</v>
-          </cell>
-          <cell r="C62" t="str">
-            <v>Gò Công Đông - Tiền Giang</v>
-          </cell>
-          <cell r="D62" t="str">
-            <v>Tiền Giang</v>
-          </cell>
-          <cell r="E62" t="str">
-            <v>Cá chỉ vàng</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>Đỗ Thị Hoàng Mai</v>
-          </cell>
-          <cell r="B63">
-            <v>310882191</v>
-          </cell>
-          <cell r="C63" t="str">
-            <v>Gò Công Tây - Tiền Giang</v>
-          </cell>
-          <cell r="D63" t="str">
-            <v>Tiền Giang</v>
-          </cell>
-          <cell r="E63" t="str">
-            <v>Cá chỉ vàng</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>Phạm Thị Chính</v>
-          </cell>
-          <cell r="B64">
-            <v>310882158</v>
-          </cell>
-          <cell r="C64" t="str">
-            <v xml:space="preserve">Gò Công Tây - Tiền Giang </v>
-          </cell>
-          <cell r="D64" t="str">
-            <v>Tiền Giang</v>
-          </cell>
-          <cell r="E64" t="str">
-            <v>Cá chỉ vàng</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>Trần Thị Lang</v>
-          </cell>
-          <cell r="B65">
-            <v>310033074</v>
-          </cell>
-          <cell r="C65" t="str">
-            <v>Mỹ Tho - Tiền Giang</v>
-          </cell>
-          <cell r="D65" t="str">
-            <v>Tiền Giang</v>
-          </cell>
-          <cell r="E65" t="str">
-            <v>Cá chỉ vàng</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v>Lê Văn Thành</v>
-          </cell>
-          <cell r="B66">
-            <v>310526150</v>
-          </cell>
-          <cell r="C66" t="str">
-            <v>Mỹ Tho - Tiền Giang</v>
-          </cell>
-          <cell r="D66" t="str">
-            <v>Tiền Giang</v>
-          </cell>
-          <cell r="E66" t="str">
-            <v>Cá chỉ vàng</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
-            <v>Nguyễn Văn Lắm</v>
-          </cell>
-          <cell r="B67">
-            <v>310703274</v>
-          </cell>
-          <cell r="C67" t="str">
-            <v>Mỹ Tho - Tiền Giang</v>
-          </cell>
-          <cell r="D67" t="str">
-            <v>Tiền Giang</v>
-          </cell>
-          <cell r="E67" t="str">
-            <v>Cá chỉ vàng</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>Phạm Thị Ngọc</v>
-          </cell>
-          <cell r="B68">
-            <v>273042454</v>
-          </cell>
-          <cell r="C68" t="str">
-            <v>Bà Rịa Vũng Tàu</v>
-          </cell>
-          <cell r="D68" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="E68" t="str">
-            <v>Br 7799TS</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69" t="str">
-            <v>Võ Thị Bảy</v>
-          </cell>
-          <cell r="B69">
-            <v>270106056</v>
-          </cell>
-          <cell r="C69" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="D69" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="E69" t="str">
-            <v>Br 4147TS</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70" t="str">
-            <v>Võ Văn Bá</v>
-          </cell>
-          <cell r="B70">
-            <v>270176684</v>
-          </cell>
-          <cell r="C70" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="D70" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="E70" t="str">
-            <v>Br 5400TS</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71" t="str">
-            <v>Nguyễn Thanh Vân</v>
-          </cell>
-          <cell r="B71">
-            <v>270176960</v>
-          </cell>
-          <cell r="C71" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="D71" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="E71" t="str">
-            <v>Br 4437TS, Br 4516TS</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72" t="str">
-            <v>Trương Văn Mình</v>
-          </cell>
-          <cell r="B72">
-            <v>273017840</v>
-          </cell>
-          <cell r="C72" t="str">
-            <v>Long Điền - Vũng Tàu</v>
-          </cell>
-          <cell r="D72" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="E72" t="str">
-            <v>Cá chỉ vàng</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73" t="str">
-            <v>Nguyễn Ngọc Anh</v>
-          </cell>
-          <cell r="B73">
-            <v>273017843</v>
-          </cell>
-          <cell r="C73" t="str">
-            <v>Long Điền - Vũng Tàu</v>
-          </cell>
-          <cell r="D73" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="E73" t="str">
-            <v>Cá chỉ vàng</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74" t="str">
-            <v>Ngô Văn Vàng</v>
-          </cell>
-          <cell r="B74">
-            <v>190253143</v>
-          </cell>
-          <cell r="C74" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="D74" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="E74" t="str">
-            <v>Mực</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75" t="str">
-            <v>Nguyễn Hành</v>
-          </cell>
-          <cell r="B75">
-            <v>190524479</v>
-          </cell>
-          <cell r="C75" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="D75" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="E75" t="str">
-            <v>Mực</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76" t="str">
-            <v>Lương Âm</v>
-          </cell>
-          <cell r="B76">
-            <v>211161439</v>
-          </cell>
-          <cell r="C76" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="D76" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="E76" t="str">
-            <v>Mực</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77" t="str">
-            <v>Nguyễn Văn Tư</v>
-          </cell>
-          <cell r="B77">
-            <v>260456563</v>
-          </cell>
-          <cell r="C77" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="D77" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="E77" t="str">
-            <v>Mực</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78" t="str">
-            <v>Nguyễn Văn Đức</v>
-          </cell>
-          <cell r="B78">
-            <v>261183075</v>
-          </cell>
-          <cell r="C78" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="D78" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="E78" t="str">
-            <v>Mực</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79" t="str">
-            <v>Hồ Thị Mỹ</v>
-          </cell>
-          <cell r="B79">
-            <v>270986506</v>
-          </cell>
-          <cell r="C79" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="D79" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="E79" t="str">
-            <v>Cá bò</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80" t="str">
-            <v>Nguyễn Thanh Vinh</v>
-          </cell>
-          <cell r="B80">
-            <v>271181056</v>
-          </cell>
-          <cell r="C80" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="D80" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="E80" t="str">
-            <v>Mực</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81" t="str">
-            <v>Đỗ Văn Tâm</v>
-          </cell>
-          <cell r="B81">
-            <v>271642418</v>
-          </cell>
-          <cell r="C81" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="D81" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="E81" t="str">
-            <v>Cá bò</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82" t="str">
-            <v>Nguyễn Đức Tiến</v>
-          </cell>
-          <cell r="B82">
-            <v>273249576</v>
-          </cell>
-          <cell r="C82" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="D82" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="E82" t="str">
-            <v>Cá bò</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83" t="str">
-            <v>Trương Văn Minh</v>
-          </cell>
-          <cell r="B83">
-            <v>273017840</v>
-          </cell>
-          <cell r="C83" t="str">
-            <v>Tân Phước - Long Điền</v>
-          </cell>
-          <cell r="D83" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="E83" t="str">
-            <v>Cá chỉ vàng</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84" t="str">
-            <v>Quang Minh</v>
-          </cell>
-          <cell r="B84">
-            <v>370902819</v>
-          </cell>
-          <cell r="C84" t="str">
-            <v>Rạch Giá - Kiên Giang</v>
-          </cell>
-          <cell r="D84" t="str">
-            <v>Kiên Giang</v>
-          </cell>
-          <cell r="E84" t="str">
-            <v>Cá chỉ vàng</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85" t="str">
-            <v>Nguyễn Thị Thơm</v>
-          </cell>
-          <cell r="B85">
-            <v>320892578</v>
-          </cell>
-          <cell r="C85" t="str">
-            <v>Chợ Lách - Bến tre</v>
-          </cell>
-          <cell r="D85" t="str">
-            <v>Bến Tre</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86" t="str">
-            <v>Nguyễn Thị Tuyết</v>
-          </cell>
-          <cell r="B86">
-            <v>310703480</v>
-          </cell>
-          <cell r="C86" t="str">
-            <v>Cai Lậy - Tiền Giang</v>
-          </cell>
-          <cell r="D86" t="str">
-            <v>Tiền Giang</v>
-          </cell>
-          <cell r="E86">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87" t="str">
-            <v>Lương Âm</v>
-          </cell>
-          <cell r="B87">
-            <v>211161439</v>
-          </cell>
-          <cell r="C87" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="D87" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="E87" t="str">
-            <v>Mực</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88" t="str">
-            <v>Nguyễn Minh Trí</v>
-          </cell>
-          <cell r="B88">
-            <v>381156256</v>
-          </cell>
-          <cell r="C88" t="str">
-            <v>Ngọc Hiển - Cà Mau</v>
-          </cell>
-          <cell r="D88" t="str">
-            <v>Cà Mau</v>
-          </cell>
-          <cell r="E88">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89" t="str">
-            <v>Nguyễn Văn Lâm</v>
-          </cell>
-          <cell r="B89">
-            <v>320892452</v>
-          </cell>
-          <cell r="C89" t="str">
-            <v>Bình Đại - Bến Tre</v>
-          </cell>
-          <cell r="D89" t="str">
-            <v>Bến Tre</v>
-          </cell>
-          <cell r="E89">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90" t="str">
-            <v>Trần Thị Mộng Điềm</v>
-          </cell>
-          <cell r="B90">
-            <v>271645628</v>
-          </cell>
-          <cell r="C90" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="D90" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="E90" t="str">
-            <v>Cá bò</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91" t="str">
-            <v>Đỗ Tư</v>
-          </cell>
-          <cell r="B91">
-            <v>270065116</v>
-          </cell>
-          <cell r="C91" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="D91" t="str">
-            <v>Vũng Tàu</v>
-          </cell>
-          <cell r="E91" t="str">
-            <v>Cá bò</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
@@ -4223,7 +2735,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Vine"/>
@@ -5468,39 +3980,6 @@
           </cell>
         </row>
       </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="KOJUBU 01"/>
-      <sheetName val="Hunan (MB)"/>
-      <sheetName val="PV 63.000"/>
-      <sheetName val="Hunan (MB) (2)"/>
-      <sheetName val="PV 83.500"/>
-      <sheetName val="TOKAI 01"/>
-      <sheetName val="Hunan (MB) (3)"/>
-      <sheetName val="TOKAI 02"/>
-      <sheetName val="PV 87.500"/>
-      <sheetName val="Hunan (MB) (4)"/>
-      <sheetName val="LC-VP 57.300"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5581,7 +4060,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5616,7 +4094,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5792,7 +4269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6383,54 +4860,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="92" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="93"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="108"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="95"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="97"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
     </row>
     <row r="5" spans="1:11" ht="20.25">
       <c r="C5" s="5"/>
@@ -6460,26 +4937,26 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105" t="s">
+      <c r="C11" s="116"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
       <c r="I11" s="37" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="28.5">
-      <c r="A12" s="101"/>
+      <c r="A12" s="114"/>
       <c r="B12" s="37" t="s">
         <v>13</v>
       </c>
@@ -6927,9 +5404,9 @@
     <row r="34" spans="2:8">
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="21"/>
@@ -6949,7 +5426,7 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6959,11 +5436,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:G27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -7548,54 +6025,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="10.5" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="92" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="93"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:9" ht="12" customHeight="1">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="108"/>
     </row>
     <row r="3" spans="1:9" ht="8.25" customHeight="1">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="95"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="97"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
     </row>
     <row r="5" spans="1:9" ht="10.5" customHeight="1">
       <c r="C5" s="5"/>
@@ -7626,26 +6103,26 @@
     </row>
     <row r="10" spans="1:9" ht="5.25" customHeight="1"/>
     <row r="11" spans="1:9" ht="15" customHeight="1">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105" t="s">
+      <c r="C11" s="116"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
       <c r="I11" s="88" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1">
-      <c r="A12" s="101"/>
+      <c r="A12" s="114"/>
       <c r="B12" s="88" t="s">
         <v>13</v>
       </c>
@@ -7699,436 +6176,436 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A14" s="112">
+      <c r="A14" s="90">
         <v>43174</v>
       </c>
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="114" t="str">
+      <c r="C14" s="92" t="str">
         <f>VLOOKUP(B14,[3]Vine!$A$5:$F$78,3,0)</f>
         <v>Ba Tri - Bến Tre</v>
       </c>
-      <c r="D14" s="115">
+      <c r="D14" s="93">
         <f>VLOOKUP(B14,[3]Vine!$A$5:$F$78,2,0)</f>
         <v>320807672</v>
       </c>
-      <c r="E14" s="116" t="s">
+      <c r="E14" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="116">
+      <c r="F14" s="94">
         <v>5049</v>
       </c>
-      <c r="G14" s="117">
+      <c r="G14" s="95">
         <v>16500</v>
       </c>
-      <c r="H14" s="117">
+      <c r="H14" s="95">
         <f>F14*G14</f>
         <v>83308500</v>
       </c>
-      <c r="I14" s="117"/>
+      <c r="I14" s="95"/>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A15" s="112">
+      <c r="A15" s="90">
         <v>43174</v>
       </c>
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="118" t="str">
+      <c r="C15" s="96" t="str">
         <f>VLOOKUP(B15,[3]Vine!$A$5:$F$78,3,0)</f>
         <v>Giồng Trôm - Bến Tre</v>
       </c>
-      <c r="D15" s="119">
+      <c r="D15" s="97">
         <f>VLOOKUP(B15,[3]Vine!$A$5:$F$78,2,0)</f>
         <v>320878054</v>
       </c>
-      <c r="E15" s="116" t="s">
+      <c r="E15" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="120">
+      <c r="F15" s="98">
         <v>5160</v>
       </c>
-      <c r="G15" s="117">
+      <c r="G15" s="95">
         <v>16500</v>
       </c>
-      <c r="H15" s="121">
+      <c r="H15" s="99">
         <f t="shared" ref="H15:H27" si="0">F15*G15</f>
         <v>85140000</v>
       </c>
-      <c r="I15" s="121"/>
+      <c r="I15" s="99"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A16" s="112">
+      <c r="A16" s="90">
         <v>43174</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="118" t="str">
+      <c r="C16" s="96" t="str">
         <f>VLOOKUP(B16,[3]Vine!$A$5:$F$78,3,0)</f>
         <v>Giồng Trôm - Bến Tre</v>
       </c>
-      <c r="D16" s="119">
+      <c r="D16" s="97">
         <f>VLOOKUP(B16,[3]Vine!$A$5:$F$78,2,0)</f>
         <v>320878272</v>
       </c>
-      <c r="E16" s="116" t="s">
+      <c r="E16" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="120">
+      <c r="F16" s="98">
         <v>5210</v>
       </c>
-      <c r="G16" s="117">
+      <c r="G16" s="95">
         <v>16500</v>
       </c>
-      <c r="H16" s="121">
+      <c r="H16" s="99">
         <f t="shared" si="0"/>
         <v>85965000</v>
       </c>
-      <c r="I16" s="121"/>
+      <c r="I16" s="99"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A17" s="112">
+      <c r="A17" s="90">
         <v>43174</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="118" t="str">
+      <c r="C17" s="96" t="str">
         <f>VLOOKUP(B17,[3]Vine!$A$5:$F$78,3,0)</f>
         <v>Ba Tri - Bến Tre</v>
       </c>
-      <c r="D17" s="119">
+      <c r="D17" s="97">
         <f>VLOOKUP(B17,[3]Vine!$A$5:$F$78,2,0)</f>
         <v>320883374</v>
       </c>
-      <c r="E17" s="116" t="s">
+      <c r="E17" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="120">
+      <c r="F17" s="98">
         <v>5046</v>
       </c>
-      <c r="G17" s="117">
+      <c r="G17" s="95">
         <v>16500</v>
       </c>
-      <c r="H17" s="121">
+      <c r="H17" s="99">
         <f t="shared" si="0"/>
         <v>83259000</v>
       </c>
-      <c r="I17" s="121"/>
+      <c r="I17" s="99"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A18" s="112">
+      <c r="A18" s="90">
         <v>43177</v>
       </c>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="118" t="str">
+      <c r="C18" s="96" t="str">
         <f>VLOOKUP(B18,[3]Vine!$A$5:$F$78,3,0)</f>
         <v>Giồng Trôm - Bến Tre</v>
       </c>
-      <c r="D18" s="119">
+      <c r="D18" s="97">
         <f>VLOOKUP(B18,[3]Vine!$A$5:$F$78,2,0)</f>
         <v>320876558</v>
       </c>
-      <c r="E18" s="116" t="s">
+      <c r="E18" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="120">
+      <c r="F18" s="98">
         <v>5013</v>
       </c>
-      <c r="G18" s="117">
+      <c r="G18" s="95">
         <v>16500</v>
       </c>
-      <c r="H18" s="121">
+      <c r="H18" s="99">
         <f t="shared" si="0"/>
         <v>82714500</v>
       </c>
-      <c r="I18" s="121"/>
+      <c r="I18" s="99"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A19" s="112">
+      <c r="A19" s="90">
         <v>43177</v>
       </c>
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="118" t="str">
+      <c r="C19" s="96" t="str">
         <f>VLOOKUP(B19,[3]Vine!$A$5:$F$78,3,0)</f>
         <v>Giồng Trôm - Bến Tre</v>
       </c>
-      <c r="D19" s="119">
+      <c r="D19" s="97">
         <f>VLOOKUP(B19,[3]Vine!$A$5:$F$78,2,0)</f>
         <v>320878054</v>
       </c>
-      <c r="E19" s="116" t="s">
+      <c r="E19" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="120">
+      <c r="F19" s="98">
         <v>5012</v>
       </c>
-      <c r="G19" s="117">
+      <c r="G19" s="95">
         <v>16500</v>
       </c>
-      <c r="H19" s="121">
+      <c r="H19" s="99">
         <f t="shared" si="0"/>
         <v>82698000</v>
       </c>
-      <c r="I19" s="121"/>
+      <c r="I19" s="99"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A20" s="112">
+      <c r="A20" s="90">
         <v>43177</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="118" t="str">
+      <c r="C20" s="96" t="str">
         <f>VLOOKUP(B20,[3]Vine!$A$5:$F$78,3,0)</f>
         <v>Giồng Trôm - Bến Tre</v>
       </c>
-      <c r="D20" s="119">
+      <c r="D20" s="97">
         <f>VLOOKUP(B20,[3]Vine!$A$5:$F$78,2,0)</f>
         <v>320878272</v>
       </c>
-      <c r="E20" s="116" t="s">
+      <c r="E20" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="120">
+      <c r="F20" s="98">
         <v>5076</v>
       </c>
-      <c r="G20" s="117">
+      <c r="G20" s="95">
         <v>16500</v>
       </c>
-      <c r="H20" s="121">
+      <c r="H20" s="99">
         <f t="shared" si="0"/>
         <v>83754000</v>
       </c>
-      <c r="I20" s="121"/>
+      <c r="I20" s="99"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A21" s="112">
+      <c r="A21" s="90">
         <v>43177</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="118" t="str">
+      <c r="C21" s="96" t="str">
         <f>VLOOKUP(B21,[3]Vine!$A$5:$F$78,3,0)</f>
         <v>Ba Tri - Bến Tre</v>
       </c>
-      <c r="D21" s="119">
+      <c r="D21" s="97">
         <f>VLOOKUP(B21,[3]Vine!$A$5:$F$78,2,0)</f>
         <v>320883374</v>
       </c>
-      <c r="E21" s="116" t="s">
+      <c r="E21" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="120">
+      <c r="F21" s="98">
         <v>5013</v>
       </c>
-      <c r="G21" s="117">
+      <c r="G21" s="95">
         <v>16500</v>
       </c>
-      <c r="H21" s="121">
+      <c r="H21" s="99">
         <f t="shared" si="0"/>
         <v>82714500</v>
       </c>
-      <c r="I21" s="121"/>
+      <c r="I21" s="99"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A22" s="112">
+      <c r="A22" s="90">
         <v>43182</v>
       </c>
-      <c r="B22" s="113" t="s">
+      <c r="B22" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="118" t="str">
+      <c r="C22" s="96" t="str">
         <f>VLOOKUP(B22,[3]Vine!$A$5:$F$78,3,0)</f>
         <v>Giồng Trôm - Bến Tre</v>
       </c>
-      <c r="D22" s="119">
+      <c r="D22" s="97">
         <f>VLOOKUP(B22,[3]Vine!$A$5:$F$78,2,0)</f>
         <v>320876558</v>
       </c>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="120">
+      <c r="F22" s="98">
         <v>5042</v>
       </c>
-      <c r="G22" s="117">
+      <c r="G22" s="95">
         <v>16500</v>
       </c>
-      <c r="H22" s="121">
+      <c r="H22" s="99">
         <f t="shared" si="0"/>
         <v>83193000</v>
       </c>
-      <c r="I22" s="121"/>
+      <c r="I22" s="99"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A23" s="112">
+      <c r="A23" s="90">
         <v>43182</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="118" t="str">
+      <c r="C23" s="96" t="str">
         <f>VLOOKUP(B23,[3]Vine!$A$5:$F$78,3,0)</f>
         <v>Ba Tri - Bến Tre</v>
       </c>
-      <c r="D23" s="119">
+      <c r="D23" s="97">
         <f>VLOOKUP(B23,[3]Vine!$A$5:$F$78,2,0)</f>
         <v>320883374</v>
       </c>
-      <c r="E23" s="116" t="s">
+      <c r="E23" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="120">
+      <c r="F23" s="98">
         <v>5230</v>
       </c>
-      <c r="G23" s="117">
+      <c r="G23" s="95">
         <v>16500</v>
       </c>
-      <c r="H23" s="121">
+      <c r="H23" s="99">
         <f t="shared" si="0"/>
         <v>86295000</v>
       </c>
-      <c r="I23" s="121"/>
+      <c r="I23" s="99"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A24" s="112">
+      <c r="A24" s="90">
         <v>43182</v>
       </c>
-      <c r="B24" s="113" t="s">
+      <c r="B24" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="118" t="str">
+      <c r="C24" s="96" t="str">
         <f>VLOOKUP(B24,[3]Vine!$A$5:$F$78,3,0)</f>
         <v>Giồng Trôm - Bến Tre</v>
       </c>
-      <c r="D24" s="119">
+      <c r="D24" s="97">
         <f>VLOOKUP(B24,[3]Vine!$A$5:$F$78,2,0)</f>
         <v>320876558</v>
       </c>
-      <c r="E24" s="116" t="s">
+      <c r="E24" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="120">
+      <c r="F24" s="98">
         <v>5078</v>
       </c>
-      <c r="G24" s="117">
+      <c r="G24" s="95">
         <v>16500</v>
       </c>
-      <c r="H24" s="121">
+      <c r="H24" s="99">
         <f t="shared" si="0"/>
         <v>83787000</v>
       </c>
-      <c r="I24" s="121"/>
+      <c r="I24" s="99"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A25" s="112">
+      <c r="A25" s="90">
         <v>43185</v>
       </c>
-      <c r="B25" s="113" t="s">
+      <c r="B25" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="118" t="str">
+      <c r="C25" s="96" t="str">
         <f>VLOOKUP(B25,[3]Vine!$A$5:$F$78,3,0)</f>
         <v>Giồng Trôm - Bến Tre</v>
       </c>
-      <c r="D25" s="119">
+      <c r="D25" s="97">
         <f>VLOOKUP(B25,[3]Vine!$A$5:$F$78,2,0)</f>
         <v>320878054</v>
       </c>
-      <c r="E25" s="116" t="s">
+      <c r="E25" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="120">
+      <c r="F25" s="98">
         <v>5049</v>
       </c>
-      <c r="G25" s="117">
+      <c r="G25" s="95">
         <v>16500</v>
       </c>
-      <c r="H25" s="121">
+      <c r="H25" s="99">
         <f t="shared" si="0"/>
         <v>83308500</v>
       </c>
-      <c r="I25" s="121"/>
+      <c r="I25" s="99"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A26" s="112">
+      <c r="A26" s="90">
         <v>43185</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="118" t="str">
+      <c r="C26" s="96" t="str">
         <f>VLOOKUP(B26,[3]Vine!$A$5:$F$78,3,0)</f>
         <v>Giồng Trôm - Bến Tre</v>
       </c>
-      <c r="D26" s="119">
+      <c r="D26" s="97">
         <f>VLOOKUP(B26,[3]Vine!$A$5:$F$78,2,0)</f>
         <v>320878272</v>
       </c>
-      <c r="E26" s="116" t="s">
+      <c r="E26" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="120">
+      <c r="F26" s="98">
         <v>5240</v>
       </c>
-      <c r="G26" s="117">
+      <c r="G26" s="95">
         <v>16500</v>
       </c>
-      <c r="H26" s="121">
+      <c r="H26" s="99">
         <f t="shared" si="0"/>
         <v>86460000</v>
       </c>
-      <c r="I26" s="121"/>
+      <c r="I26" s="99"/>
     </row>
     <row r="27" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A27" s="112">
+      <c r="A27" s="90">
         <v>43185</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="118" t="str">
+      <c r="C27" s="96" t="str">
         <f>VLOOKUP(B27,[3]Vine!$A$5:$F$78,3,0)</f>
         <v>Ba Tri - Bến Tre</v>
       </c>
-      <c r="D27" s="119">
+      <c r="D27" s="97">
         <f>VLOOKUP(B27,[3]Vine!$A$5:$F$78,2,0)</f>
         <v>320883374</v>
       </c>
-      <c r="E27" s="116" t="s">
+      <c r="E27" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="120">
+      <c r="F27" s="98">
         <f>6480*11-SUM(F14:F26)</f>
         <v>5062</v>
       </c>
-      <c r="G27" s="117">
+      <c r="G27" s="95">
         <v>16500</v>
       </c>
-      <c r="H27" s="121">
+      <c r="H27" s="99">
         <f t="shared" si="0"/>
         <v>83523000</v>
       </c>
-      <c r="I27" s="121"/>
+      <c r="I27" s="99"/>
     </row>
     <row r="28" spans="1:9" ht="10.5" customHeight="1">
-      <c r="A28" s="122"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="121"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
@@ -8218,35 +6695,35 @@
     </row>
     <row r="44" spans="1:9" ht="5.25" hidden="1" customHeight="1"/>
     <row r="45" spans="1:9" hidden="1">
-      <c r="A45" s="123" t="s">
+      <c r="A45" s="101" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:9" hidden="1">
-      <c r="A46" s="106" t="s">
+      <c r="A46" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="107"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="107"/>
+      <c r="B46" s="120"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="120"/>
+      <c r="F46" s="120"/>
+      <c r="G46" s="120"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="120"/>
     </row>
     <row r="47" spans="1:9" ht="33" hidden="1" customHeight="1">
-      <c r="A47" s="106" t="s">
+      <c r="A47" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="106"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="119"/>
+      <c r="F47" s="119"/>
+      <c r="G47" s="119"/>
+      <c r="H47" s="119"/>
+      <c r="I47" s="119"/>
     </row>
     <row r="48" spans="1:9" s="4" customFormat="1" ht="17.25" customHeight="1">
       <c r="B48" s="2"/>
@@ -8320,7 +6797,7 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8329,8 +6806,959 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="58" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="57" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="57" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="57" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="57" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="60" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="60" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="57" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="57" customWidth="1"/>
+    <col min="10" max="10" width="9" style="57"/>
+    <col min="257" max="257" width="9.75" customWidth="1"/>
+    <col min="258" max="258" width="21.125" customWidth="1"/>
+    <col min="259" max="259" width="21.625" customWidth="1"/>
+    <col min="260" max="260" width="12.125" customWidth="1"/>
+    <col min="261" max="261" width="13.375" customWidth="1"/>
+    <col min="262" max="262" width="9.125" customWidth="1"/>
+    <col min="263" max="263" width="9.25" customWidth="1"/>
+    <col min="264" max="264" width="11.25" customWidth="1"/>
+    <col min="265" max="265" width="9.5" customWidth="1"/>
+    <col min="513" max="513" width="9.75" customWidth="1"/>
+    <col min="514" max="514" width="21.125" customWidth="1"/>
+    <col min="515" max="515" width="21.625" customWidth="1"/>
+    <col min="516" max="516" width="12.125" customWidth="1"/>
+    <col min="517" max="517" width="13.375" customWidth="1"/>
+    <col min="518" max="518" width="9.125" customWidth="1"/>
+    <col min="519" max="519" width="9.25" customWidth="1"/>
+    <col min="520" max="520" width="11.25" customWidth="1"/>
+    <col min="521" max="521" width="9.5" customWidth="1"/>
+    <col min="769" max="769" width="9.75" customWidth="1"/>
+    <col min="770" max="770" width="21.125" customWidth="1"/>
+    <col min="771" max="771" width="21.625" customWidth="1"/>
+    <col min="772" max="772" width="12.125" customWidth="1"/>
+    <col min="773" max="773" width="13.375" customWidth="1"/>
+    <col min="774" max="774" width="9.125" customWidth="1"/>
+    <col min="775" max="775" width="9.25" customWidth="1"/>
+    <col min="776" max="776" width="11.25" customWidth="1"/>
+    <col min="777" max="777" width="9.5" customWidth="1"/>
+    <col min="1025" max="1025" width="9.75" customWidth="1"/>
+    <col min="1026" max="1026" width="21.125" customWidth="1"/>
+    <col min="1027" max="1027" width="21.625" customWidth="1"/>
+    <col min="1028" max="1028" width="12.125" customWidth="1"/>
+    <col min="1029" max="1029" width="13.375" customWidth="1"/>
+    <col min="1030" max="1030" width="9.125" customWidth="1"/>
+    <col min="1031" max="1031" width="9.25" customWidth="1"/>
+    <col min="1032" max="1032" width="11.25" customWidth="1"/>
+    <col min="1033" max="1033" width="9.5" customWidth="1"/>
+    <col min="1281" max="1281" width="9.75" customWidth="1"/>
+    <col min="1282" max="1282" width="21.125" customWidth="1"/>
+    <col min="1283" max="1283" width="21.625" customWidth="1"/>
+    <col min="1284" max="1284" width="12.125" customWidth="1"/>
+    <col min="1285" max="1285" width="13.375" customWidth="1"/>
+    <col min="1286" max="1286" width="9.125" customWidth="1"/>
+    <col min="1287" max="1287" width="9.25" customWidth="1"/>
+    <col min="1288" max="1288" width="11.25" customWidth="1"/>
+    <col min="1289" max="1289" width="9.5" customWidth="1"/>
+    <col min="1537" max="1537" width="9.75" customWidth="1"/>
+    <col min="1538" max="1538" width="21.125" customWidth="1"/>
+    <col min="1539" max="1539" width="21.625" customWidth="1"/>
+    <col min="1540" max="1540" width="12.125" customWidth="1"/>
+    <col min="1541" max="1541" width="13.375" customWidth="1"/>
+    <col min="1542" max="1542" width="9.125" customWidth="1"/>
+    <col min="1543" max="1543" width="9.25" customWidth="1"/>
+    <col min="1544" max="1544" width="11.25" customWidth="1"/>
+    <col min="1545" max="1545" width="9.5" customWidth="1"/>
+    <col min="1793" max="1793" width="9.75" customWidth="1"/>
+    <col min="1794" max="1794" width="21.125" customWidth="1"/>
+    <col min="1795" max="1795" width="21.625" customWidth="1"/>
+    <col min="1796" max="1796" width="12.125" customWidth="1"/>
+    <col min="1797" max="1797" width="13.375" customWidth="1"/>
+    <col min="1798" max="1798" width="9.125" customWidth="1"/>
+    <col min="1799" max="1799" width="9.25" customWidth="1"/>
+    <col min="1800" max="1800" width="11.25" customWidth="1"/>
+    <col min="1801" max="1801" width="9.5" customWidth="1"/>
+    <col min="2049" max="2049" width="9.75" customWidth="1"/>
+    <col min="2050" max="2050" width="21.125" customWidth="1"/>
+    <col min="2051" max="2051" width="21.625" customWidth="1"/>
+    <col min="2052" max="2052" width="12.125" customWidth="1"/>
+    <col min="2053" max="2053" width="13.375" customWidth="1"/>
+    <col min="2054" max="2054" width="9.125" customWidth="1"/>
+    <col min="2055" max="2055" width="9.25" customWidth="1"/>
+    <col min="2056" max="2056" width="11.25" customWidth="1"/>
+    <col min="2057" max="2057" width="9.5" customWidth="1"/>
+    <col min="2305" max="2305" width="9.75" customWidth="1"/>
+    <col min="2306" max="2306" width="21.125" customWidth="1"/>
+    <col min="2307" max="2307" width="21.625" customWidth="1"/>
+    <col min="2308" max="2308" width="12.125" customWidth="1"/>
+    <col min="2309" max="2309" width="13.375" customWidth="1"/>
+    <col min="2310" max="2310" width="9.125" customWidth="1"/>
+    <col min="2311" max="2311" width="9.25" customWidth="1"/>
+    <col min="2312" max="2312" width="11.25" customWidth="1"/>
+    <col min="2313" max="2313" width="9.5" customWidth="1"/>
+    <col min="2561" max="2561" width="9.75" customWidth="1"/>
+    <col min="2562" max="2562" width="21.125" customWidth="1"/>
+    <col min="2563" max="2563" width="21.625" customWidth="1"/>
+    <col min="2564" max="2564" width="12.125" customWidth="1"/>
+    <col min="2565" max="2565" width="13.375" customWidth="1"/>
+    <col min="2566" max="2566" width="9.125" customWidth="1"/>
+    <col min="2567" max="2567" width="9.25" customWidth="1"/>
+    <col min="2568" max="2568" width="11.25" customWidth="1"/>
+    <col min="2569" max="2569" width="9.5" customWidth="1"/>
+    <col min="2817" max="2817" width="9.75" customWidth="1"/>
+    <col min="2818" max="2818" width="21.125" customWidth="1"/>
+    <col min="2819" max="2819" width="21.625" customWidth="1"/>
+    <col min="2820" max="2820" width="12.125" customWidth="1"/>
+    <col min="2821" max="2821" width="13.375" customWidth="1"/>
+    <col min="2822" max="2822" width="9.125" customWidth="1"/>
+    <col min="2823" max="2823" width="9.25" customWidth="1"/>
+    <col min="2824" max="2824" width="11.25" customWidth="1"/>
+    <col min="2825" max="2825" width="9.5" customWidth="1"/>
+    <col min="3073" max="3073" width="9.75" customWidth="1"/>
+    <col min="3074" max="3074" width="21.125" customWidth="1"/>
+    <col min="3075" max="3075" width="21.625" customWidth="1"/>
+    <col min="3076" max="3076" width="12.125" customWidth="1"/>
+    <col min="3077" max="3077" width="13.375" customWidth="1"/>
+    <col min="3078" max="3078" width="9.125" customWidth="1"/>
+    <col min="3079" max="3079" width="9.25" customWidth="1"/>
+    <col min="3080" max="3080" width="11.25" customWidth="1"/>
+    <col min="3081" max="3081" width="9.5" customWidth="1"/>
+    <col min="3329" max="3329" width="9.75" customWidth="1"/>
+    <col min="3330" max="3330" width="21.125" customWidth="1"/>
+    <col min="3331" max="3331" width="21.625" customWidth="1"/>
+    <col min="3332" max="3332" width="12.125" customWidth="1"/>
+    <col min="3333" max="3333" width="13.375" customWidth="1"/>
+    <col min="3334" max="3334" width="9.125" customWidth="1"/>
+    <col min="3335" max="3335" width="9.25" customWidth="1"/>
+    <col min="3336" max="3336" width="11.25" customWidth="1"/>
+    <col min="3337" max="3337" width="9.5" customWidth="1"/>
+    <col min="3585" max="3585" width="9.75" customWidth="1"/>
+    <col min="3586" max="3586" width="21.125" customWidth="1"/>
+    <col min="3587" max="3587" width="21.625" customWidth="1"/>
+    <col min="3588" max="3588" width="12.125" customWidth="1"/>
+    <col min="3589" max="3589" width="13.375" customWidth="1"/>
+    <col min="3590" max="3590" width="9.125" customWidth="1"/>
+    <col min="3591" max="3591" width="9.25" customWidth="1"/>
+    <col min="3592" max="3592" width="11.25" customWidth="1"/>
+    <col min="3593" max="3593" width="9.5" customWidth="1"/>
+    <col min="3841" max="3841" width="9.75" customWidth="1"/>
+    <col min="3842" max="3842" width="21.125" customWidth="1"/>
+    <col min="3843" max="3843" width="21.625" customWidth="1"/>
+    <col min="3844" max="3844" width="12.125" customWidth="1"/>
+    <col min="3845" max="3845" width="13.375" customWidth="1"/>
+    <col min="3846" max="3846" width="9.125" customWidth="1"/>
+    <col min="3847" max="3847" width="9.25" customWidth="1"/>
+    <col min="3848" max="3848" width="11.25" customWidth="1"/>
+    <col min="3849" max="3849" width="9.5" customWidth="1"/>
+    <col min="4097" max="4097" width="9.75" customWidth="1"/>
+    <col min="4098" max="4098" width="21.125" customWidth="1"/>
+    <col min="4099" max="4099" width="21.625" customWidth="1"/>
+    <col min="4100" max="4100" width="12.125" customWidth="1"/>
+    <col min="4101" max="4101" width="13.375" customWidth="1"/>
+    <col min="4102" max="4102" width="9.125" customWidth="1"/>
+    <col min="4103" max="4103" width="9.25" customWidth="1"/>
+    <col min="4104" max="4104" width="11.25" customWidth="1"/>
+    <col min="4105" max="4105" width="9.5" customWidth="1"/>
+    <col min="4353" max="4353" width="9.75" customWidth="1"/>
+    <col min="4354" max="4354" width="21.125" customWidth="1"/>
+    <col min="4355" max="4355" width="21.625" customWidth="1"/>
+    <col min="4356" max="4356" width="12.125" customWidth="1"/>
+    <col min="4357" max="4357" width="13.375" customWidth="1"/>
+    <col min="4358" max="4358" width="9.125" customWidth="1"/>
+    <col min="4359" max="4359" width="9.25" customWidth="1"/>
+    <col min="4360" max="4360" width="11.25" customWidth="1"/>
+    <col min="4361" max="4361" width="9.5" customWidth="1"/>
+    <col min="4609" max="4609" width="9.75" customWidth="1"/>
+    <col min="4610" max="4610" width="21.125" customWidth="1"/>
+    <col min="4611" max="4611" width="21.625" customWidth="1"/>
+    <col min="4612" max="4612" width="12.125" customWidth="1"/>
+    <col min="4613" max="4613" width="13.375" customWidth="1"/>
+    <col min="4614" max="4614" width="9.125" customWidth="1"/>
+    <col min="4615" max="4615" width="9.25" customWidth="1"/>
+    <col min="4616" max="4616" width="11.25" customWidth="1"/>
+    <col min="4617" max="4617" width="9.5" customWidth="1"/>
+    <col min="4865" max="4865" width="9.75" customWidth="1"/>
+    <col min="4866" max="4866" width="21.125" customWidth="1"/>
+    <col min="4867" max="4867" width="21.625" customWidth="1"/>
+    <col min="4868" max="4868" width="12.125" customWidth="1"/>
+    <col min="4869" max="4869" width="13.375" customWidth="1"/>
+    <col min="4870" max="4870" width="9.125" customWidth="1"/>
+    <col min="4871" max="4871" width="9.25" customWidth="1"/>
+    <col min="4872" max="4872" width="11.25" customWidth="1"/>
+    <col min="4873" max="4873" width="9.5" customWidth="1"/>
+    <col min="5121" max="5121" width="9.75" customWidth="1"/>
+    <col min="5122" max="5122" width="21.125" customWidth="1"/>
+    <col min="5123" max="5123" width="21.625" customWidth="1"/>
+    <col min="5124" max="5124" width="12.125" customWidth="1"/>
+    <col min="5125" max="5125" width="13.375" customWidth="1"/>
+    <col min="5126" max="5126" width="9.125" customWidth="1"/>
+    <col min="5127" max="5127" width="9.25" customWidth="1"/>
+    <col min="5128" max="5128" width="11.25" customWidth="1"/>
+    <col min="5129" max="5129" width="9.5" customWidth="1"/>
+    <col min="5377" max="5377" width="9.75" customWidth="1"/>
+    <col min="5378" max="5378" width="21.125" customWidth="1"/>
+    <col min="5379" max="5379" width="21.625" customWidth="1"/>
+    <col min="5380" max="5380" width="12.125" customWidth="1"/>
+    <col min="5381" max="5381" width="13.375" customWidth="1"/>
+    <col min="5382" max="5382" width="9.125" customWidth="1"/>
+    <col min="5383" max="5383" width="9.25" customWidth="1"/>
+    <col min="5384" max="5384" width="11.25" customWidth="1"/>
+    <col min="5385" max="5385" width="9.5" customWidth="1"/>
+    <col min="5633" max="5633" width="9.75" customWidth="1"/>
+    <col min="5634" max="5634" width="21.125" customWidth="1"/>
+    <col min="5635" max="5635" width="21.625" customWidth="1"/>
+    <col min="5636" max="5636" width="12.125" customWidth="1"/>
+    <col min="5637" max="5637" width="13.375" customWidth="1"/>
+    <col min="5638" max="5638" width="9.125" customWidth="1"/>
+    <col min="5639" max="5639" width="9.25" customWidth="1"/>
+    <col min="5640" max="5640" width="11.25" customWidth="1"/>
+    <col min="5641" max="5641" width="9.5" customWidth="1"/>
+    <col min="5889" max="5889" width="9.75" customWidth="1"/>
+    <col min="5890" max="5890" width="21.125" customWidth="1"/>
+    <col min="5891" max="5891" width="21.625" customWidth="1"/>
+    <col min="5892" max="5892" width="12.125" customWidth="1"/>
+    <col min="5893" max="5893" width="13.375" customWidth="1"/>
+    <col min="5894" max="5894" width="9.125" customWidth="1"/>
+    <col min="5895" max="5895" width="9.25" customWidth="1"/>
+    <col min="5896" max="5896" width="11.25" customWidth="1"/>
+    <col min="5897" max="5897" width="9.5" customWidth="1"/>
+    <col min="6145" max="6145" width="9.75" customWidth="1"/>
+    <col min="6146" max="6146" width="21.125" customWidth="1"/>
+    <col min="6147" max="6147" width="21.625" customWidth="1"/>
+    <col min="6148" max="6148" width="12.125" customWidth="1"/>
+    <col min="6149" max="6149" width="13.375" customWidth="1"/>
+    <col min="6150" max="6150" width="9.125" customWidth="1"/>
+    <col min="6151" max="6151" width="9.25" customWidth="1"/>
+    <col min="6152" max="6152" width="11.25" customWidth="1"/>
+    <col min="6153" max="6153" width="9.5" customWidth="1"/>
+    <col min="6401" max="6401" width="9.75" customWidth="1"/>
+    <col min="6402" max="6402" width="21.125" customWidth="1"/>
+    <col min="6403" max="6403" width="21.625" customWidth="1"/>
+    <col min="6404" max="6404" width="12.125" customWidth="1"/>
+    <col min="6405" max="6405" width="13.375" customWidth="1"/>
+    <col min="6406" max="6406" width="9.125" customWidth="1"/>
+    <col min="6407" max="6407" width="9.25" customWidth="1"/>
+    <col min="6408" max="6408" width="11.25" customWidth="1"/>
+    <col min="6409" max="6409" width="9.5" customWidth="1"/>
+    <col min="6657" max="6657" width="9.75" customWidth="1"/>
+    <col min="6658" max="6658" width="21.125" customWidth="1"/>
+    <col min="6659" max="6659" width="21.625" customWidth="1"/>
+    <col min="6660" max="6660" width="12.125" customWidth="1"/>
+    <col min="6661" max="6661" width="13.375" customWidth="1"/>
+    <col min="6662" max="6662" width="9.125" customWidth="1"/>
+    <col min="6663" max="6663" width="9.25" customWidth="1"/>
+    <col min="6664" max="6664" width="11.25" customWidth="1"/>
+    <col min="6665" max="6665" width="9.5" customWidth="1"/>
+    <col min="6913" max="6913" width="9.75" customWidth="1"/>
+    <col min="6914" max="6914" width="21.125" customWidth="1"/>
+    <col min="6915" max="6915" width="21.625" customWidth="1"/>
+    <col min="6916" max="6916" width="12.125" customWidth="1"/>
+    <col min="6917" max="6917" width="13.375" customWidth="1"/>
+    <col min="6918" max="6918" width="9.125" customWidth="1"/>
+    <col min="6919" max="6919" width="9.25" customWidth="1"/>
+    <col min="6920" max="6920" width="11.25" customWidth="1"/>
+    <col min="6921" max="6921" width="9.5" customWidth="1"/>
+    <col min="7169" max="7169" width="9.75" customWidth="1"/>
+    <col min="7170" max="7170" width="21.125" customWidth="1"/>
+    <col min="7171" max="7171" width="21.625" customWidth="1"/>
+    <col min="7172" max="7172" width="12.125" customWidth="1"/>
+    <col min="7173" max="7173" width="13.375" customWidth="1"/>
+    <col min="7174" max="7174" width="9.125" customWidth="1"/>
+    <col min="7175" max="7175" width="9.25" customWidth="1"/>
+    <col min="7176" max="7176" width="11.25" customWidth="1"/>
+    <col min="7177" max="7177" width="9.5" customWidth="1"/>
+    <col min="7425" max="7425" width="9.75" customWidth="1"/>
+    <col min="7426" max="7426" width="21.125" customWidth="1"/>
+    <col min="7427" max="7427" width="21.625" customWidth="1"/>
+    <col min="7428" max="7428" width="12.125" customWidth="1"/>
+    <col min="7429" max="7429" width="13.375" customWidth="1"/>
+    <col min="7430" max="7430" width="9.125" customWidth="1"/>
+    <col min="7431" max="7431" width="9.25" customWidth="1"/>
+    <col min="7432" max="7432" width="11.25" customWidth="1"/>
+    <col min="7433" max="7433" width="9.5" customWidth="1"/>
+    <col min="7681" max="7681" width="9.75" customWidth="1"/>
+    <col min="7682" max="7682" width="21.125" customWidth="1"/>
+    <col min="7683" max="7683" width="21.625" customWidth="1"/>
+    <col min="7684" max="7684" width="12.125" customWidth="1"/>
+    <col min="7685" max="7685" width="13.375" customWidth="1"/>
+    <col min="7686" max="7686" width="9.125" customWidth="1"/>
+    <col min="7687" max="7687" width="9.25" customWidth="1"/>
+    <col min="7688" max="7688" width="11.25" customWidth="1"/>
+    <col min="7689" max="7689" width="9.5" customWidth="1"/>
+    <col min="7937" max="7937" width="9.75" customWidth="1"/>
+    <col min="7938" max="7938" width="21.125" customWidth="1"/>
+    <col min="7939" max="7939" width="21.625" customWidth="1"/>
+    <col min="7940" max="7940" width="12.125" customWidth="1"/>
+    <col min="7941" max="7941" width="13.375" customWidth="1"/>
+    <col min="7942" max="7942" width="9.125" customWidth="1"/>
+    <col min="7943" max="7943" width="9.25" customWidth="1"/>
+    <col min="7944" max="7944" width="11.25" customWidth="1"/>
+    <col min="7945" max="7945" width="9.5" customWidth="1"/>
+    <col min="8193" max="8193" width="9.75" customWidth="1"/>
+    <col min="8194" max="8194" width="21.125" customWidth="1"/>
+    <col min="8195" max="8195" width="21.625" customWidth="1"/>
+    <col min="8196" max="8196" width="12.125" customWidth="1"/>
+    <col min="8197" max="8197" width="13.375" customWidth="1"/>
+    <col min="8198" max="8198" width="9.125" customWidth="1"/>
+    <col min="8199" max="8199" width="9.25" customWidth="1"/>
+    <col min="8200" max="8200" width="11.25" customWidth="1"/>
+    <col min="8201" max="8201" width="9.5" customWidth="1"/>
+    <col min="8449" max="8449" width="9.75" customWidth="1"/>
+    <col min="8450" max="8450" width="21.125" customWidth="1"/>
+    <col min="8451" max="8451" width="21.625" customWidth="1"/>
+    <col min="8452" max="8452" width="12.125" customWidth="1"/>
+    <col min="8453" max="8453" width="13.375" customWidth="1"/>
+    <col min="8454" max="8454" width="9.125" customWidth="1"/>
+    <col min="8455" max="8455" width="9.25" customWidth="1"/>
+    <col min="8456" max="8456" width="11.25" customWidth="1"/>
+    <col min="8457" max="8457" width="9.5" customWidth="1"/>
+    <col min="8705" max="8705" width="9.75" customWidth="1"/>
+    <col min="8706" max="8706" width="21.125" customWidth="1"/>
+    <col min="8707" max="8707" width="21.625" customWidth="1"/>
+    <col min="8708" max="8708" width="12.125" customWidth="1"/>
+    <col min="8709" max="8709" width="13.375" customWidth="1"/>
+    <col min="8710" max="8710" width="9.125" customWidth="1"/>
+    <col min="8711" max="8711" width="9.25" customWidth="1"/>
+    <col min="8712" max="8712" width="11.25" customWidth="1"/>
+    <col min="8713" max="8713" width="9.5" customWidth="1"/>
+    <col min="8961" max="8961" width="9.75" customWidth="1"/>
+    <col min="8962" max="8962" width="21.125" customWidth="1"/>
+    <col min="8963" max="8963" width="21.625" customWidth="1"/>
+    <col min="8964" max="8964" width="12.125" customWidth="1"/>
+    <col min="8965" max="8965" width="13.375" customWidth="1"/>
+    <col min="8966" max="8966" width="9.125" customWidth="1"/>
+    <col min="8967" max="8967" width="9.25" customWidth="1"/>
+    <col min="8968" max="8968" width="11.25" customWidth="1"/>
+    <col min="8969" max="8969" width="9.5" customWidth="1"/>
+    <col min="9217" max="9217" width="9.75" customWidth="1"/>
+    <col min="9218" max="9218" width="21.125" customWidth="1"/>
+    <col min="9219" max="9219" width="21.625" customWidth="1"/>
+    <col min="9220" max="9220" width="12.125" customWidth="1"/>
+    <col min="9221" max="9221" width="13.375" customWidth="1"/>
+    <col min="9222" max="9222" width="9.125" customWidth="1"/>
+    <col min="9223" max="9223" width="9.25" customWidth="1"/>
+    <col min="9224" max="9224" width="11.25" customWidth="1"/>
+    <col min="9225" max="9225" width="9.5" customWidth="1"/>
+    <col min="9473" max="9473" width="9.75" customWidth="1"/>
+    <col min="9474" max="9474" width="21.125" customWidth="1"/>
+    <col min="9475" max="9475" width="21.625" customWidth="1"/>
+    <col min="9476" max="9476" width="12.125" customWidth="1"/>
+    <col min="9477" max="9477" width="13.375" customWidth="1"/>
+    <col min="9478" max="9478" width="9.125" customWidth="1"/>
+    <col min="9479" max="9479" width="9.25" customWidth="1"/>
+    <col min="9480" max="9480" width="11.25" customWidth="1"/>
+    <col min="9481" max="9481" width="9.5" customWidth="1"/>
+    <col min="9729" max="9729" width="9.75" customWidth="1"/>
+    <col min="9730" max="9730" width="21.125" customWidth="1"/>
+    <col min="9731" max="9731" width="21.625" customWidth="1"/>
+    <col min="9732" max="9732" width="12.125" customWidth="1"/>
+    <col min="9733" max="9733" width="13.375" customWidth="1"/>
+    <col min="9734" max="9734" width="9.125" customWidth="1"/>
+    <col min="9735" max="9735" width="9.25" customWidth="1"/>
+    <col min="9736" max="9736" width="11.25" customWidth="1"/>
+    <col min="9737" max="9737" width="9.5" customWidth="1"/>
+    <col min="9985" max="9985" width="9.75" customWidth="1"/>
+    <col min="9986" max="9986" width="21.125" customWidth="1"/>
+    <col min="9987" max="9987" width="21.625" customWidth="1"/>
+    <col min="9988" max="9988" width="12.125" customWidth="1"/>
+    <col min="9989" max="9989" width="13.375" customWidth="1"/>
+    <col min="9990" max="9990" width="9.125" customWidth="1"/>
+    <col min="9991" max="9991" width="9.25" customWidth="1"/>
+    <col min="9992" max="9992" width="11.25" customWidth="1"/>
+    <col min="9993" max="9993" width="9.5" customWidth="1"/>
+    <col min="10241" max="10241" width="9.75" customWidth="1"/>
+    <col min="10242" max="10242" width="21.125" customWidth="1"/>
+    <col min="10243" max="10243" width="21.625" customWidth="1"/>
+    <col min="10244" max="10244" width="12.125" customWidth="1"/>
+    <col min="10245" max="10245" width="13.375" customWidth="1"/>
+    <col min="10246" max="10246" width="9.125" customWidth="1"/>
+    <col min="10247" max="10247" width="9.25" customWidth="1"/>
+    <col min="10248" max="10248" width="11.25" customWidth="1"/>
+    <col min="10249" max="10249" width="9.5" customWidth="1"/>
+    <col min="10497" max="10497" width="9.75" customWidth="1"/>
+    <col min="10498" max="10498" width="21.125" customWidth="1"/>
+    <col min="10499" max="10499" width="21.625" customWidth="1"/>
+    <col min="10500" max="10500" width="12.125" customWidth="1"/>
+    <col min="10501" max="10501" width="13.375" customWidth="1"/>
+    <col min="10502" max="10502" width="9.125" customWidth="1"/>
+    <col min="10503" max="10503" width="9.25" customWidth="1"/>
+    <col min="10504" max="10504" width="11.25" customWidth="1"/>
+    <col min="10505" max="10505" width="9.5" customWidth="1"/>
+    <col min="10753" max="10753" width="9.75" customWidth="1"/>
+    <col min="10754" max="10754" width="21.125" customWidth="1"/>
+    <col min="10755" max="10755" width="21.625" customWidth="1"/>
+    <col min="10756" max="10756" width="12.125" customWidth="1"/>
+    <col min="10757" max="10757" width="13.375" customWidth="1"/>
+    <col min="10758" max="10758" width="9.125" customWidth="1"/>
+    <col min="10759" max="10759" width="9.25" customWidth="1"/>
+    <col min="10760" max="10760" width="11.25" customWidth="1"/>
+    <col min="10761" max="10761" width="9.5" customWidth="1"/>
+    <col min="11009" max="11009" width="9.75" customWidth="1"/>
+    <col min="11010" max="11010" width="21.125" customWidth="1"/>
+    <col min="11011" max="11011" width="21.625" customWidth="1"/>
+    <col min="11012" max="11012" width="12.125" customWidth="1"/>
+    <col min="11013" max="11013" width="13.375" customWidth="1"/>
+    <col min="11014" max="11014" width="9.125" customWidth="1"/>
+    <col min="11015" max="11015" width="9.25" customWidth="1"/>
+    <col min="11016" max="11016" width="11.25" customWidth="1"/>
+    <col min="11017" max="11017" width="9.5" customWidth="1"/>
+    <col min="11265" max="11265" width="9.75" customWidth="1"/>
+    <col min="11266" max="11266" width="21.125" customWidth="1"/>
+    <col min="11267" max="11267" width="21.625" customWidth="1"/>
+    <col min="11268" max="11268" width="12.125" customWidth="1"/>
+    <col min="11269" max="11269" width="13.375" customWidth="1"/>
+    <col min="11270" max="11270" width="9.125" customWidth="1"/>
+    <col min="11271" max="11271" width="9.25" customWidth="1"/>
+    <col min="11272" max="11272" width="11.25" customWidth="1"/>
+    <col min="11273" max="11273" width="9.5" customWidth="1"/>
+    <col min="11521" max="11521" width="9.75" customWidth="1"/>
+    <col min="11522" max="11522" width="21.125" customWidth="1"/>
+    <col min="11523" max="11523" width="21.625" customWidth="1"/>
+    <col min="11524" max="11524" width="12.125" customWidth="1"/>
+    <col min="11525" max="11525" width="13.375" customWidth="1"/>
+    <col min="11526" max="11526" width="9.125" customWidth="1"/>
+    <col min="11527" max="11527" width="9.25" customWidth="1"/>
+    <col min="11528" max="11528" width="11.25" customWidth="1"/>
+    <col min="11529" max="11529" width="9.5" customWidth="1"/>
+    <col min="11777" max="11777" width="9.75" customWidth="1"/>
+    <col min="11778" max="11778" width="21.125" customWidth="1"/>
+    <col min="11779" max="11779" width="21.625" customWidth="1"/>
+    <col min="11780" max="11780" width="12.125" customWidth="1"/>
+    <col min="11781" max="11781" width="13.375" customWidth="1"/>
+    <col min="11782" max="11782" width="9.125" customWidth="1"/>
+    <col min="11783" max="11783" width="9.25" customWidth="1"/>
+    <col min="11784" max="11784" width="11.25" customWidth="1"/>
+    <col min="11785" max="11785" width="9.5" customWidth="1"/>
+    <col min="12033" max="12033" width="9.75" customWidth="1"/>
+    <col min="12034" max="12034" width="21.125" customWidth="1"/>
+    <col min="12035" max="12035" width="21.625" customWidth="1"/>
+    <col min="12036" max="12036" width="12.125" customWidth="1"/>
+    <col min="12037" max="12037" width="13.375" customWidth="1"/>
+    <col min="12038" max="12038" width="9.125" customWidth="1"/>
+    <col min="12039" max="12039" width="9.25" customWidth="1"/>
+    <col min="12040" max="12040" width="11.25" customWidth="1"/>
+    <col min="12041" max="12041" width="9.5" customWidth="1"/>
+    <col min="12289" max="12289" width="9.75" customWidth="1"/>
+    <col min="12290" max="12290" width="21.125" customWidth="1"/>
+    <col min="12291" max="12291" width="21.625" customWidth="1"/>
+    <col min="12292" max="12292" width="12.125" customWidth="1"/>
+    <col min="12293" max="12293" width="13.375" customWidth="1"/>
+    <col min="12294" max="12294" width="9.125" customWidth="1"/>
+    <col min="12295" max="12295" width="9.25" customWidth="1"/>
+    <col min="12296" max="12296" width="11.25" customWidth="1"/>
+    <col min="12297" max="12297" width="9.5" customWidth="1"/>
+    <col min="12545" max="12545" width="9.75" customWidth="1"/>
+    <col min="12546" max="12546" width="21.125" customWidth="1"/>
+    <col min="12547" max="12547" width="21.625" customWidth="1"/>
+    <col min="12548" max="12548" width="12.125" customWidth="1"/>
+    <col min="12549" max="12549" width="13.375" customWidth="1"/>
+    <col min="12550" max="12550" width="9.125" customWidth="1"/>
+    <col min="12551" max="12551" width="9.25" customWidth="1"/>
+    <col min="12552" max="12552" width="11.25" customWidth="1"/>
+    <col min="12553" max="12553" width="9.5" customWidth="1"/>
+    <col min="12801" max="12801" width="9.75" customWidth="1"/>
+    <col min="12802" max="12802" width="21.125" customWidth="1"/>
+    <col min="12803" max="12803" width="21.625" customWidth="1"/>
+    <col min="12804" max="12804" width="12.125" customWidth="1"/>
+    <col min="12805" max="12805" width="13.375" customWidth="1"/>
+    <col min="12806" max="12806" width="9.125" customWidth="1"/>
+    <col min="12807" max="12807" width="9.25" customWidth="1"/>
+    <col min="12808" max="12808" width="11.25" customWidth="1"/>
+    <col min="12809" max="12809" width="9.5" customWidth="1"/>
+    <col min="13057" max="13057" width="9.75" customWidth="1"/>
+    <col min="13058" max="13058" width="21.125" customWidth="1"/>
+    <col min="13059" max="13059" width="21.625" customWidth="1"/>
+    <col min="13060" max="13060" width="12.125" customWidth="1"/>
+    <col min="13061" max="13061" width="13.375" customWidth="1"/>
+    <col min="13062" max="13062" width="9.125" customWidth="1"/>
+    <col min="13063" max="13063" width="9.25" customWidth="1"/>
+    <col min="13064" max="13064" width="11.25" customWidth="1"/>
+    <col min="13065" max="13065" width="9.5" customWidth="1"/>
+    <col min="13313" max="13313" width="9.75" customWidth="1"/>
+    <col min="13314" max="13314" width="21.125" customWidth="1"/>
+    <col min="13315" max="13315" width="21.625" customWidth="1"/>
+    <col min="13316" max="13316" width="12.125" customWidth="1"/>
+    <col min="13317" max="13317" width="13.375" customWidth="1"/>
+    <col min="13318" max="13318" width="9.125" customWidth="1"/>
+    <col min="13319" max="13319" width="9.25" customWidth="1"/>
+    <col min="13320" max="13320" width="11.25" customWidth="1"/>
+    <col min="13321" max="13321" width="9.5" customWidth="1"/>
+    <col min="13569" max="13569" width="9.75" customWidth="1"/>
+    <col min="13570" max="13570" width="21.125" customWidth="1"/>
+    <col min="13571" max="13571" width="21.625" customWidth="1"/>
+    <col min="13572" max="13572" width="12.125" customWidth="1"/>
+    <col min="13573" max="13573" width="13.375" customWidth="1"/>
+    <col min="13574" max="13574" width="9.125" customWidth="1"/>
+    <col min="13575" max="13575" width="9.25" customWidth="1"/>
+    <col min="13576" max="13576" width="11.25" customWidth="1"/>
+    <col min="13577" max="13577" width="9.5" customWidth="1"/>
+    <col min="13825" max="13825" width="9.75" customWidth="1"/>
+    <col min="13826" max="13826" width="21.125" customWidth="1"/>
+    <col min="13827" max="13827" width="21.625" customWidth="1"/>
+    <col min="13828" max="13828" width="12.125" customWidth="1"/>
+    <col min="13829" max="13829" width="13.375" customWidth="1"/>
+    <col min="13830" max="13830" width="9.125" customWidth="1"/>
+    <col min="13831" max="13831" width="9.25" customWidth="1"/>
+    <col min="13832" max="13832" width="11.25" customWidth="1"/>
+    <col min="13833" max="13833" width="9.5" customWidth="1"/>
+    <col min="14081" max="14081" width="9.75" customWidth="1"/>
+    <col min="14082" max="14082" width="21.125" customWidth="1"/>
+    <col min="14083" max="14083" width="21.625" customWidth="1"/>
+    <col min="14084" max="14084" width="12.125" customWidth="1"/>
+    <col min="14085" max="14085" width="13.375" customWidth="1"/>
+    <col min="14086" max="14086" width="9.125" customWidth="1"/>
+    <col min="14087" max="14087" width="9.25" customWidth="1"/>
+    <col min="14088" max="14088" width="11.25" customWidth="1"/>
+    <col min="14089" max="14089" width="9.5" customWidth="1"/>
+    <col min="14337" max="14337" width="9.75" customWidth="1"/>
+    <col min="14338" max="14338" width="21.125" customWidth="1"/>
+    <col min="14339" max="14339" width="21.625" customWidth="1"/>
+    <col min="14340" max="14340" width="12.125" customWidth="1"/>
+    <col min="14341" max="14341" width="13.375" customWidth="1"/>
+    <col min="14342" max="14342" width="9.125" customWidth="1"/>
+    <col min="14343" max="14343" width="9.25" customWidth="1"/>
+    <col min="14344" max="14344" width="11.25" customWidth="1"/>
+    <col min="14345" max="14345" width="9.5" customWidth="1"/>
+    <col min="14593" max="14593" width="9.75" customWidth="1"/>
+    <col min="14594" max="14594" width="21.125" customWidth="1"/>
+    <col min="14595" max="14595" width="21.625" customWidth="1"/>
+    <col min="14596" max="14596" width="12.125" customWidth="1"/>
+    <col min="14597" max="14597" width="13.375" customWidth="1"/>
+    <col min="14598" max="14598" width="9.125" customWidth="1"/>
+    <col min="14599" max="14599" width="9.25" customWidth="1"/>
+    <col min="14600" max="14600" width="11.25" customWidth="1"/>
+    <col min="14601" max="14601" width="9.5" customWidth="1"/>
+    <col min="14849" max="14849" width="9.75" customWidth="1"/>
+    <col min="14850" max="14850" width="21.125" customWidth="1"/>
+    <col min="14851" max="14851" width="21.625" customWidth="1"/>
+    <col min="14852" max="14852" width="12.125" customWidth="1"/>
+    <col min="14853" max="14853" width="13.375" customWidth="1"/>
+    <col min="14854" max="14854" width="9.125" customWidth="1"/>
+    <col min="14855" max="14855" width="9.25" customWidth="1"/>
+    <col min="14856" max="14856" width="11.25" customWidth="1"/>
+    <col min="14857" max="14857" width="9.5" customWidth="1"/>
+    <col min="15105" max="15105" width="9.75" customWidth="1"/>
+    <col min="15106" max="15106" width="21.125" customWidth="1"/>
+    <col min="15107" max="15107" width="21.625" customWidth="1"/>
+    <col min="15108" max="15108" width="12.125" customWidth="1"/>
+    <col min="15109" max="15109" width="13.375" customWidth="1"/>
+    <col min="15110" max="15110" width="9.125" customWidth="1"/>
+    <col min="15111" max="15111" width="9.25" customWidth="1"/>
+    <col min="15112" max="15112" width="11.25" customWidth="1"/>
+    <col min="15113" max="15113" width="9.5" customWidth="1"/>
+    <col min="15361" max="15361" width="9.75" customWidth="1"/>
+    <col min="15362" max="15362" width="21.125" customWidth="1"/>
+    <col min="15363" max="15363" width="21.625" customWidth="1"/>
+    <col min="15364" max="15364" width="12.125" customWidth="1"/>
+    <col min="15365" max="15365" width="13.375" customWidth="1"/>
+    <col min="15366" max="15366" width="9.125" customWidth="1"/>
+    <col min="15367" max="15367" width="9.25" customWidth="1"/>
+    <col min="15368" max="15368" width="11.25" customWidth="1"/>
+    <col min="15369" max="15369" width="9.5" customWidth="1"/>
+    <col min="15617" max="15617" width="9.75" customWidth="1"/>
+    <col min="15618" max="15618" width="21.125" customWidth="1"/>
+    <col min="15619" max="15619" width="21.625" customWidth="1"/>
+    <col min="15620" max="15620" width="12.125" customWidth="1"/>
+    <col min="15621" max="15621" width="13.375" customWidth="1"/>
+    <col min="15622" max="15622" width="9.125" customWidth="1"/>
+    <col min="15623" max="15623" width="9.25" customWidth="1"/>
+    <col min="15624" max="15624" width="11.25" customWidth="1"/>
+    <col min="15625" max="15625" width="9.5" customWidth="1"/>
+    <col min="15873" max="15873" width="9.75" customWidth="1"/>
+    <col min="15874" max="15874" width="21.125" customWidth="1"/>
+    <col min="15875" max="15875" width="21.625" customWidth="1"/>
+    <col min="15876" max="15876" width="12.125" customWidth="1"/>
+    <col min="15877" max="15877" width="13.375" customWidth="1"/>
+    <col min="15878" max="15878" width="9.125" customWidth="1"/>
+    <col min="15879" max="15879" width="9.25" customWidth="1"/>
+    <col min="15880" max="15880" width="11.25" customWidth="1"/>
+    <col min="15881" max="15881" width="9.5" customWidth="1"/>
+    <col min="16129" max="16129" width="9.75" customWidth="1"/>
+    <col min="16130" max="16130" width="21.125" customWidth="1"/>
+    <col min="16131" max="16131" width="21.625" customWidth="1"/>
+    <col min="16132" max="16132" width="12.125" customWidth="1"/>
+    <col min="16133" max="16133" width="13.375" customWidth="1"/>
+    <col min="16134" max="16134" width="9.125" customWidth="1"/>
+    <col min="16135" max="16135" width="9.25" customWidth="1"/>
+    <col min="16136" max="16136" width="11.25" customWidth="1"/>
+    <col min="16137" max="16137" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A1" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="106"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="108"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A4" s="123" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1">
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A6" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A7" s="58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A8" s="58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A9" s="58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A11" s="113" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="116"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="61"/>
+    </row>
+    <row r="12" spans="1:10" ht="35.25" customHeight="1">
+      <c r="A12" s="114"/>
+      <c r="B12" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="89"/>
+      <c r="J12" s="61"/>
+    </row>
+    <row r="13" spans="1:10" ht="10.5" customHeight="1">
+      <c r="A13" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="63">
+        <v>2</v>
+      </c>
+      <c r="C13" s="63">
+        <v>3</v>
+      </c>
+      <c r="D13" s="63">
+        <v>4</v>
+      </c>
+      <c r="E13" s="63">
+        <v>5</v>
+      </c>
+      <c r="F13" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="63">
+        <v>8</v>
+      </c>
+      <c r="I13" s="63">
+        <v>9</v>
+      </c>
+      <c r="J13" s="65"/>
+    </row>
+    <row r="14" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A14" s="66">
+        <v>43174</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="67" t="str">
+        <f>VLOOKUP(B14,[3]Vine!$A$5:$F$78,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D14" s="68">
+        <f>VLOOKUP(B14,[3]Vine!$A$5:$F$78,2,0)</f>
+        <v>261183075</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="69">
+        <v>3246</v>
+      </c>
+      <c r="G14" s="24">
+        <v>17500</v>
+      </c>
+      <c r="H14" s="24">
+        <f>F14*G14</f>
+        <v>56805000</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="70"/>
+    </row>
+    <row r="15" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A15" s="66">
+        <v>43174</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="71" t="str">
+        <f>VLOOKUP(B15,[3]Vine!$A$5:$F$78,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D15" s="22">
+        <f>VLOOKUP(B15,[3]Vine!$A$5:$F$78,2,0)</f>
+        <v>260456563</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3089</v>
+      </c>
+      <c r="G15" s="24">
+        <v>17500</v>
+      </c>
+      <c r="H15" s="23">
+        <f t="shared" ref="H14:H16" si="0">F15*G15</f>
+        <v>54057500</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="70"/>
+    </row>
+    <row r="16" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A16" s="66">
+        <v>43174</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="71" t="str">
+        <f>VLOOKUP(B16,[3]Vine!$A$5:$F$78,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D16" s="22">
+        <f>VLOOKUP(B16,[3]Vine!$A$5:$F$78,2,0)</f>
+        <v>270176960</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="3">
+        <f>2000*5-SUM(F14:F15)</f>
+        <v>3665</v>
+      </c>
+      <c r="G16" s="24">
+        <v>17500</v>
+      </c>
+      <c r="H16" s="23">
+        <f t="shared" si="0"/>
+        <v>64137500</v>
+      </c>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="70"/>
+    </row>
+    <row r="18" spans="1:10" ht="7.5" customHeight="1">
+      <c r="A18" s="72"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="70"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A19" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="78">
+        <f>SUM(H14:H17)</f>
+        <v>175000000</v>
+      </c>
+      <c r="D19" s="78"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="C20" s="60"/>
+      <c r="H20" s="79"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="C21" s="79"/>
+      <c r="D21" s="60"/>
+      <c r="G21" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="85"/>
+      <c r="G23" s="86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="G24" s="86"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" s="84"/>
+      <c r="D25" s="85"/>
+      <c r="G25" s="86"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" s="87"/>
+      <c r="D26" s="85"/>
+      <c r="G26" s="86"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="85"/>
+      <c r="G27" s="86"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" s="87"/>
+      <c r="D28" s="85"/>
+      <c r="G28" s="86"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" s="84"/>
+      <c r="D29" s="85"/>
+      <c r="G29" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="H1:I4"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:H11"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:E6 F6">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Döõ lieäu sai"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8921,54 +8349,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="92" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="93"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="108"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="95"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="97"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
     </row>
     <row r="5" spans="1:11" ht="20.25">
       <c r="C5" s="5"/>
@@ -8999,26 +8427,26 @@
     </row>
     <row r="10" spans="1:11" ht="7.5" customHeight="1"/>
     <row r="11" spans="1:11" ht="21" customHeight="1">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105" t="s">
+      <c r="C11" s="116"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
       <c r="I11" s="27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="39.75" customHeight="1">
-      <c r="A12" s="101"/>
+      <c r="A12" s="114"/>
       <c r="B12" s="27" t="s">
         <v>13</v>
       </c>
@@ -9466,9 +8894,9 @@
     <row r="34" spans="2:8">
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="21"/>
@@ -9488,7 +8916,7 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9498,7 +8926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -10089,54 +9517,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="92" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="93"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="108"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="95"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="97"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
     </row>
     <row r="5" spans="1:9" ht="20.25">
       <c r="A5" s="42"/>
@@ -10215,26 +9643,26 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105" t="s">
+      <c r="C11" s="116"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
       <c r="I11" s="39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.5">
-      <c r="A12" s="109"/>
+      <c r="A12" s="122"/>
       <c r="B12" s="39" t="s">
         <v>13</v>
       </c>
@@ -11021,9 +10449,9 @@
       <c r="C44" s="21"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="102"/>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9">
@@ -11040,30 +10468,30 @@
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A46" s="106" t="s">
+      <c r="A46" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="107"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="107"/>
+      <c r="B46" s="120"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="120"/>
+      <c r="F46" s="120"/>
+      <c r="G46" s="120"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="120"/>
     </row>
     <row r="47" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A47" s="106" t="s">
+      <c r="A47" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="106"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="119"/>
+      <c r="F47" s="119"/>
+      <c r="G47" s="119"/>
+      <c r="H47" s="119"/>
+      <c r="I47" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -11078,7 +10506,7 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11088,7 +10516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -11679,54 +11107,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="92" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="93"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="108"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="95"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="97"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
     </row>
     <row r="5" spans="1:11" ht="20.25">
       <c r="C5" s="5"/>
@@ -11757,26 +11185,26 @@
     </row>
     <row r="10" spans="1:11" ht="9.75" customHeight="1"/>
     <row r="11" spans="1:11">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105" t="s">
+      <c r="C11" s="116"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
       <c r="I11" s="41" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A12" s="101"/>
+      <c r="A12" s="114"/>
       <c r="B12" s="41" t="s">
         <v>13</v>
       </c>
@@ -12241,9 +11669,9 @@
       <c r="A36" s="4"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
@@ -12272,7 +11700,7 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12282,7 +11710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12873,54 +12301,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="92" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="93"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="108"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="95"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="97"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
     </row>
     <row r="5" spans="1:11" ht="20.25">
       <c r="C5" s="5"/>
@@ -12951,26 +12379,26 @@
     </row>
     <row r="10" spans="1:11" ht="7.5" customHeight="1"/>
     <row r="11" spans="1:11" ht="21" customHeight="1">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105" t="s">
+      <c r="C11" s="116"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
       <c r="I11" s="49" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="39.75" customHeight="1">
-      <c r="A12" s="101"/>
+      <c r="A12" s="114"/>
       <c r="B12" s="49" t="s">
         <v>13</v>
       </c>
@@ -14055,9 +13483,9 @@
         <v>31</v>
       </c>
       <c r="C55" s="21"/>
-      <c r="F55" s="89"/>
-      <c r="G55" s="89"/>
-      <c r="H55" s="89"/>
+      <c r="F55" s="102"/>
+      <c r="G55" s="102"/>
+      <c r="H55" s="102"/>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
@@ -14086,7 +13514,7 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14096,7 +13524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
@@ -14687,54 +14115,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="92" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="93"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="108"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="95"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="97"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
     </row>
     <row r="5" spans="1:11" ht="20.25">
       <c r="C5" s="5"/>
@@ -14764,26 +14192,26 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105" t="s">
+      <c r="C11" s="116"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
       <c r="I11" s="51" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="28.5">
-      <c r="A12" s="101"/>
+      <c r="A12" s="114"/>
       <c r="B12" s="51" t="s">
         <v>13</v>
       </c>
@@ -15837,9 +15265,9 @@
         <v>31</v>
       </c>
       <c r="C54" s="21"/>
-      <c r="F54" s="89"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="89"/>
+      <c r="F54" s="102"/>
+      <c r="G54" s="102"/>
+      <c r="H54" s="102"/>
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54"/>
@@ -15868,7 +15296,7 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15877,7 +15305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16468,54 +15896,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="92" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="93"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="108"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="95"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="97"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
     </row>
     <row r="5" spans="1:11" ht="20.25">
       <c r="C5" s="5"/>
@@ -16546,26 +15974,26 @@
     </row>
     <row r="10" spans="1:11" ht="9.75" customHeight="1"/>
     <row r="11" spans="1:11">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105" t="s">
+      <c r="C11" s="116"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
       <c r="I11" s="53" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A12" s="101"/>
+      <c r="A12" s="114"/>
       <c r="B12" s="53" t="s">
         <v>13</v>
       </c>
@@ -17029,9 +16457,9 @@
       <c r="A36" s="4"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
@@ -17060,7 +16488,7 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17070,7 +16498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17659,54 +17087,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="92" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="93"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="108"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="95"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
     </row>
     <row r="4" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="97"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
       <c r="C5" s="59"/>
@@ -17737,27 +17165,27 @@
     </row>
     <row r="10" spans="1:10" ht="6.75" customHeight="1"/>
     <row r="11" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105" t="s">
+      <c r="C11" s="116"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
       <c r="I11" s="54" t="s">
         <v>38</v>
       </c>
       <c r="J11" s="61"/>
     </row>
     <row r="12" spans="1:10" ht="35.25" customHeight="1">
-      <c r="A12" s="101"/>
+      <c r="A12" s="114"/>
       <c r="B12" s="54" t="s">
         <v>13</v>
       </c>
@@ -18226,7 +17654,7 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18237,7 +17665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -18828,54 +18256,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="92" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="93"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="108"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="95"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="97"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
     </row>
     <row r="5" spans="1:11" ht="20.25">
       <c r="C5" s="5"/>
@@ -18905,26 +18333,26 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105" t="s">
+      <c r="C11" s="116"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
       <c r="I11" s="56" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="28.5">
-      <c r="A12" s="101"/>
+      <c r="A12" s="114"/>
       <c r="B12" s="56" t="s">
         <v>13</v>
       </c>
@@ -19710,9 +19138,9 @@
         <v>31</v>
       </c>
       <c r="C45" s="21"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="102"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
@@ -19741,7 +19169,7 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
